--- a/testdatas/hostmanagement.xlsx
+++ b/testdatas/hostmanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="主机管理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>case_id</t>
   </si>
@@ -30,12 +30,12 @@
     <t>expect</t>
   </si>
   <si>
+    <t>text_location</t>
+  </si>
+  <si>
     <t>execute</t>
   </si>
   <si>
-    <t>testresult</t>
-  </si>
-  <si>
     <t>opt-lotus-001</t>
   </si>
   <si>
@@ -48,6 +48,9 @@
     <t>{"msg":"lotus停止成功"}</t>
   </si>
   <si>
+    <t>{"xpath":"//span[text()='lotus停止成功']"}</t>
+  </si>
+  <si>
     <t>True</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>{"msg":"lotus重启成功"}</t>
   </si>
   <si>
+    <t>{"xpath":"//span[text()='lotus重启成功']"}</t>
+  </si>
+  <si>
     <t>opt-lotus-003</t>
   </si>
   <si>
@@ -75,6 +81,9 @@
     <t>{"msg":"lotus启动成功"}</t>
   </si>
   <si>
+    <t>{"xpath":"//span[text()='lotus启动成功']"}</t>
+  </si>
+  <si>
     <t>opt-lotus-004</t>
   </si>
   <si>
@@ -84,6 +93,12 @@
     <t>{"button_name":"关机","reason_comment":"auto test by terry","is_confirm":"True","sn":"KJ2020100610104","minerid":"f01234","approve_state":"yes"}</t>
   </si>
   <si>
+    <t>{"msg":"操作成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='操作成功']"}</t>
+  </si>
+  <si>
     <t>opt-lotus-005</t>
   </si>
   <si>
@@ -102,7 +117,10 @@
     <t>{"button_name":"移除","reason_comment":"auto test by terry","is_confirm":"True","sn":"KJ2020100610106","minerid":"f01234","approve_state":"yes"}</t>
   </si>
   <si>
-    <t>{"msg":"修改成功"}</t>
+    <t>{"msg":"移除成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='移除成功']"}</t>
   </si>
   <si>
     <t>opt-lotus-007</t>
@@ -114,21 +132,24 @@
     <t>{"button_name":"移除","reason_comment":"auto test by terry","is_confirm":"True","sn":"KJ2020100610107","minerid":"f01234","approve_state":"yes"}</t>
   </si>
   <si>
-    <t>{"errmsg":"只能移除故障机"}</t>
+    <t>{"msg":"只能移除故障机"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='只能移除故障机']"}</t>
+  </si>
+  <si>
+    <t>opt-lotus-008</t>
+  </si>
+  <si>
+    <t>不走审批流直接进行停止lotus操作</t>
+  </si>
+  <si>
+    <t>{"button_name":"停止lotus","reason_comment":"auto test by terry","is_confirm":"True","sn":"KJ2020100610101","minerid":"f01234","approve_state":"no"}</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>opt-lotus-008</t>
-  </si>
-  <si>
-    <t>不走审批流直接进行停止lotus操作</t>
-  </si>
-  <si>
-    <t>{"button_name":"停止lotus","reason_comment":"auto test by terry","is_confirm":"True","sn":"KJ2020100610101","minerid":"f01234","approve_state":"no"}</t>
-  </si>
-  <si>
     <t>opt-lotus-009</t>
   </si>
   <si>
@@ -177,106 +198,118 @@
     <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"AMXH4U24SE04-D1E11U2S40","customer":"内部","software_role":"seal"}</t>
   </si>
   <si>
-    <t>{"msg":"修改集群成功"}</t>
+    <t>{"msg":"添加成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='添加成功']"}</t>
   </si>
   <si>
     <t>import-deviceinfo-002</t>
   </si>
   <si>
-    <t>导入未定义软件角色unset设备信息</t>
-  </si>
-  <si>
-    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"AMXH4U24SE04-D1E11U2S40","customer":"内部","software_role":"unset"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"软件类型为必填字段"}</t>
+    <t>sn为空</t>
+  </si>
+  <si>
+    <t>{"import_type":"添加主机","minerid":"f01234","sn":"","module":"AMXH4U24SE04-D1E11U2S40","customer":"内部","software_role":"seal"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入主机SN"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入主机SN']"}</t>
   </si>
   <si>
     <t>import-deviceinfo-003</t>
   </si>
   <si>
-    <t>sn为空</t>
-  </si>
-  <si>
-    <t>{"import_type":"添加主机","minerid":"f01234","sn":"","module":"AMXH4U24SE04-D1E11U2S40","customer":"内部","software_role":"seal"}</t>
+    <t>产品型号为空</t>
+  </si>
+  <si>
+    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"","customer":"内部","software_role":"seal"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入产品型号"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入产品型号']"}</t>
   </si>
   <si>
     <t>import-deviceinfo-004</t>
   </si>
   <si>
-    <t>产品型号为空</t>
-  </si>
-  <si>
-    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"","customer":"内部","software_role":"seal"}</t>
+    <t>所属客户不选</t>
+  </si>
+  <si>
+    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"AMXH4U24SE04-D1E11U2S40","customer":"","software_role":"seal"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入所属客户"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入所属客户']"}</t>
   </si>
   <si>
     <t>import-deviceinfo-005</t>
   </si>
   <si>
-    <t>所属客户不选</t>
-  </si>
-  <si>
-    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"AMXH4U24SE04-D1E11U2S40","customer":"","software_role":"seal"}</t>
+    <t>软件角色不选</t>
+  </si>
+  <si>
+    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"AMXH4U24SE04-D1E11U2S40","customer":"内部","software_role":""}</t>
+  </si>
+  <si>
+    <t>{"msg":"请选择软件角色"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请选择软件角色']"}</t>
+  </si>
+  <si>
+    <t>输入设备SN进行搜索</t>
+  </si>
+  <si>
+    <t>{"minerid":"f060975","sn":"KJ21052010004","ip":"","role":"","machine_status":"","work_status":""}</t>
+  </si>
+  <si>
+    <t>输入设备IP进行搜索</t>
+  </si>
+  <si>
+    <t>{"minerid":"f060975","sn":"","ip":"10.3.66.6","role":"","machine_status":"","work_status":""}</t>
+  </si>
+  <si>
+    <t>按软件角色进行搜索</t>
+  </si>
+  <si>
+    <t>{"minerid":"f060975","sn":"","ip":"","role":"seal","machine_status":"","work_status":""}</t>
+  </si>
+  <si>
+    <t>按故障状态进行搜索</t>
+  </si>
+  <si>
+    <t>{"minerid":"f060975","sn":"","ip":"","role":"","machine_status":"故障","work_status":""}</t>
+  </si>
+  <si>
+    <t>按设备工作状态进行搜索</t>
+  </si>
+  <si>
+    <t>{"minerid":"f060975","sn":"","ip":"","role":"","machine_status":"","work_status":"在线"}</t>
   </si>
   <si>
     <t>import-deviceinfo-006</t>
   </si>
   <si>
-    <t>软件角色不选</t>
-  </si>
-  <si>
-    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"AMXH4U24SE04-D1E11U2S40","customer":"内部","software_role":""}</t>
+    <t>按软件角色和故障状态进行搜索</t>
+  </si>
+  <si>
+    <t>{"minerid":"f060975","sn":"","ip":"","role":"node","machine_status":"正常","work_status":""}</t>
   </si>
   <si>
     <t>import-deviceinfo-007</t>
   </si>
   <si>
-    <t>所受客户和软件角色都不选</t>
-  </si>
-  <si>
-    <t>{"import_type":"添加主机","minerid":"f01234","sn":"KJ2020100610118","module":"AMXH4U24SE04-D1E11U2S40","customer":"","software_role":""}</t>
-  </si>
-  <si>
-    <t>输入设备SN进行搜索</t>
-  </si>
-  <si>
-    <t>{"minerid":"f060975","sn":"KJ21052010004","ip":"","role":"","machine_status":"","work_status":""}</t>
-  </si>
-  <si>
-    <t>输入设备IP进行搜索</t>
-  </si>
-  <si>
-    <t>{"minerid":"f060975","sn":"","ip":"10.3.66.6","role":"","machine_status":"","work_status":""}</t>
-  </si>
-  <si>
-    <t>按软件角色进行搜索</t>
-  </si>
-  <si>
-    <t>{"minerid":"f060975","sn":"","ip":"","role":"seal","machine_status":"","work_status":""}</t>
-  </si>
-  <si>
-    <t>按故障状态进行搜索</t>
-  </si>
-  <si>
-    <t>{"minerid":"f060975","sn":"","ip":"","role":"","machine_status":"故障","work_status":""}</t>
-  </si>
-  <si>
-    <t>按设备工作状态进行搜索</t>
-  </si>
-  <si>
-    <t>{"minerid":"f060975","sn":"","ip":"","role":"","machine_status":"","work_status":"在线"}</t>
-  </si>
-  <si>
-    <t>按软件角色和故障状态进行搜索</t>
-  </si>
-  <si>
-    <t>{"minerid":"f060975","sn":"","ip":"","role":"node","machine_status":"正常","work_status":""}</t>
-  </si>
-  <si>
     <t>按软件角色和设备工作状态进行搜索</t>
   </si>
   <si>
-    <t>{"minerid":"f060975","sn":"","ip":"","role":"seal","machine_status":"","work_status":"在线"}</t>
+    <t>{"minerid":"f060975","sn":"","ip":"","role":"miner","machine_status":"","work_status":"在线"}</t>
   </si>
   <si>
     <t>import-deviceinfo-008</t>
@@ -285,7 +318,7 @@
     <t>按故障状态和设备工作状态进行搜索</t>
   </si>
   <si>
-    <t>{"minerid":"f060975","sn":"","ip":"","role":"seal","machine_status":"故障","work_status":"在线"}</t>
+    <t>{"minerid":"f060975","sn":"","ip":"","role":"storage","machine_status":"故障","work_status":"在线"}</t>
   </si>
   <si>
     <t>import-deviceinfo-009</t>
@@ -295,12 +328,6 @@
   </si>
   <si>
     <t>{"minerid":"f060975","sn":"KJ20102920001","ip":"","role":"storage","machine_status":"故障","work_status":"在线"}</t>
-  </si>
-  <si>
-    <t>import-deviceinfo-010</t>
-  </si>
-  <si>
-    <t>import-deviceinfo-011</t>
   </si>
 </sst>
 </file>
@@ -308,10 +335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -331,6 +358,121 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,122 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,187 +502,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,20 +698,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,15 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,6 +773,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -786,133 +813,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,23 +1273,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1281,8 +1309,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1295,199 +1324,225 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="40.5" spans="1:6">
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:7">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:7">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:7">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9"/>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:5">
+      <c r="E9"/>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:6">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:6">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:5">
+    </row>
+    <row r="13" ht="40.5" spans="1:6">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:6">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1499,23 +1554,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1534,120 +1590,118 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:7">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="40.5" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:7">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:7">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:6">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1660,13 +1714,13 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
@@ -1688,159 +1742,153 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="F1"/>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D7"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" ht="27" spans="1:5">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:5">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdatas/hostmanagement.xlsx
+++ b/testdatas/hostmanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140"/>
+    <workbookView windowWidth="27870" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主机管理" sheetId="1" r:id="rId1"/>
@@ -335,8 +335,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -363,6 +363,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -371,82 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -455,6 +471,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -463,31 +486,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,187 +502,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,23 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,26 +720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,15 +752,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -793,6 +760,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,7 +804,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -813,85 +813,112 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
@@ -900,46 +927,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,7 +1275,7 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1714,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="D4"/>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F5"/>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F6"/>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="D7"/>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F7"/>
     </row>
@@ -1853,7 +1853,7 @@
         <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:5">
@@ -1867,7 +1867,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
@@ -1881,7 +1881,7 @@
         <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
